--- a/市場_2025改修/ソース/seikyu_denki_yyyy.xlsx
+++ b/市場_2025改修/ソース/seikyu_denki_yyyy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\99_ETC\01_サントク\03_姫路市市場\20_ソース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC4946B-A469-4197-BB1A-D9FCF75E813E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7834714F-AD85-4E62-9C04-F246943DAD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{B8DBE83B-0714-4720-A754-6EF8DE562A29}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="202212" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -736,11 +736,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1B1D72-CC0F-4112-8934-D60C751A6939}">
   <dimension ref="A1:Y340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">

--- a/市場_2025改修/ソース/seikyu_denki_yyyy.xlsx
+++ b/市場_2025改修/ソース/seikyu_denki_yyyy.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7834714F-AD85-4E62-9C04-F246943DAD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADA0371-4291-4E60-9058-36250F4BFF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{B8DBE83B-0714-4720-A754-6EF8DE562A29}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="202212" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="94">
   <si>
     <t>納付書番号</t>
   </si>
@@ -312,9 +312,26 @@
     <t>河野運送㈱</t>
   </si>
   <si>
-    <t>日割り</t>
+    <t>備考</t>
     <rPh sb="0" eb="2">
-      <t>ヒワ</t>
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調定金額</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -721,6 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A88165A-E705-4565-ADA2-4B7B5D69B7BA}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -734,10 +752,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1B1D72-CC0F-4112-8934-D60C751A6939}">
-  <dimension ref="A1:Y340"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:AA340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -745,7 +764,7 @@
     <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,10 +838,16 @@
         <v>23</v>
       </c>
       <c r="Y1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>3</v>
       </c>
@@ -866,7 +891,7 @@
         <v>-799820</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -898,7 +923,7 @@
         <v>38838</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -930,7 +955,7 @@
         <v>17185</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -962,7 +987,7 @@
         <v>17735</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -994,7 +1019,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1026,7 +1051,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1058,7 +1083,7 @@
         <v>138235</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1090,7 +1115,7 @@
         <v>23916</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1122,7 +1147,7 @@
         <v>117041</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1154,7 +1179,7 @@
         <v>86107</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1186,7 +1211,7 @@
         <v>17762</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1218,7 +1243,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1250,7 +1275,7 @@
         <v>17922</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1282,7 +1307,7 @@
         <v>75643</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3</v>
       </c>
